--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15671.92323286844</v>
+        <v>29398.28137028656</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10330217.31190885</v>
+        <v>10246262.14428199</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24605849.93613457</v>
+        <v>24521894.76850772</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3039774.81571321</v>
+        <v>3084873.43110426</v>
       </c>
     </row>
     <row r="11">
@@ -9325,16 +9327,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9410,7 +9412,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
@@ -9483,10 +9485,10 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9811,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9875,7 +9877,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -9893,7 +9895,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
         <v>61.18167021676314</v>
@@ -10209,7 +10211,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
         <v>90.4687457914608</v>
@@ -10285,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -10440,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10507,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -10519,7 +10521,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23917,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -24002,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -24075,10 +24077,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>38.66169381481656</v>
@@ -24227,13 +24229,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
@@ -24306,10 +24308,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>61.18167021676314</v>
@@ -24324,10 +24326,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24403,7 +24405,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24467,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24476,7 +24478,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24540,10 +24542,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24555,16 +24557,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24704,22 +24706,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -24777,13 +24779,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24862,7 +24864,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,7 +24879,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>61.14583096471014</v>
@@ -24950,7 +24952,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
         <v>117.8828208804077</v>
@@ -24959,7 +24961,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25017,7 +25019,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25032,7 +25034,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
         <v>65.92768427608706</v>
@@ -25099,7 +25101,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25111,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25907,7 +25909,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>164186.9243141143</v>
+        <v>152902.9074133306</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332974.7486319775</v>
+        <v>356764.3343264521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>169329.7158575156</v>
+        <v>230218.7710227642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>321717.7391477582</v>
+        <v>276326.3424160747</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>204852.2736173051</v>
+        <v>249277.608060601</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>257788.2826319574</v>
+        <v>244128.3383002068</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173341.2216024208</v>
+        <v>194289.7093874986</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>199297.7033002395</v>
+        <v>178349.2155151618</v>
       </c>
     </row>
   </sheetData>
@@ -26326,22 +26328,22 @@
         <v>91456.43851989086</v>
       </c>
       <c r="G2" t="n">
-        <v>46783.04247568582</v>
+        <v>44203.83861264955</v>
       </c>
       <c r="H2" t="n">
-        <v>85363.1166054831</v>
+        <v>90800.73619279158</v>
       </c>
       <c r="I2" t="n">
-        <v>47958.53768560608</v>
+        <v>61876.03600909153</v>
       </c>
       <c r="J2" t="n">
-        <v>82790.08586623301</v>
+        <v>72414.9094704196</v>
       </c>
       <c r="K2" t="n">
-        <v>56077.97945927231</v>
+        <v>66232.34161773995</v>
       </c>
       <c r="L2" t="n">
-        <v>68177.63866262141</v>
+        <v>65055.36567250697</v>
       </c>
       <c r="M2" t="n">
         <v>68545.1542661649</v>
@@ -26350,10 +26352,10 @@
         <v>47083.14889236043</v>
       </c>
       <c r="O2" t="n">
-        <v>48875.45328444159</v>
+        <v>53663.67906388792</v>
       </c>
       <c r="P2" t="n">
-        <v>54808.36338680016</v>
+        <v>50020.13760735384</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="C4" t="n">
         <v>27927.38292940848</v>
       </c>
       <c r="D4" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="E4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="F4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="G4" t="n">
-        <v>6294.155958674758</v>
+        <v>3714.952095638481</v>
       </c>
       <c r="H4" t="n">
-        <v>44874.23008847204</v>
+        <v>50311.84967578051</v>
       </c>
       <c r="I4" t="n">
-        <v>7469.651168595025</v>
+        <v>21387.14949208047</v>
       </c>
       <c r="J4" t="n">
-        <v>42301.19934922196</v>
+        <v>31926.02295340854</v>
       </c>
       <c r="K4" t="n">
-        <v>15589.09294226124</v>
+        <v>25743.45510072889</v>
       </c>
       <c r="L4" t="n">
-        <v>27688.75214561034</v>
+        <v>24566.47915549589</v>
       </c>
       <c r="M4" t="n">
         <v>28056.26774915383</v>
@@ -26454,10 +26456,10 @@
         <v>6594.262375349359</v>
       </c>
       <c r="O4" t="n">
-        <v>8386.566767430519</v>
+        <v>13174.79254687685</v>
       </c>
       <c r="P4" t="n">
-        <v>14319.47686978911</v>
+        <v>9531.251090342776</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.59999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799725</v>
+        <v>-96222.72558799731</v>
       </c>
       <c r="F6" t="n">
+        <v>36877.27441200273</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36877.27441200275</v>
+      </c>
+      <c r="H6" t="n">
         <v>36877.27441200274</v>
       </c>
-      <c r="G6" t="n">
-        <v>36877.27441200273</v>
-      </c>
-      <c r="H6" t="n">
-        <v>36877.27441200273</v>
-      </c>
       <c r="I6" t="n">
-        <v>36877.27441200273</v>
+        <v>36877.27441200274</v>
       </c>
       <c r="J6" t="n">
         <v>36877.27441200273</v>
       </c>
       <c r="K6" t="n">
+        <v>36877.27441200273</v>
+      </c>
+      <c r="L6" t="n">
         <v>36877.27441200276</v>
-      </c>
-      <c r="L6" t="n">
-        <v>36877.27441200275</v>
       </c>
       <c r="M6" t="n">
         <v>36877.27441200275</v>
       </c>
       <c r="N6" t="n">
-        <v>36877.27441200275</v>
+        <v>36877.27441200274</v>
       </c>
       <c r="O6" t="n">
         <v>36877.27441200275</v>
       </c>
       <c r="P6" t="n">
-        <v>36877.27441200273</v>
+        <v>36877.27441200274</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29398.28137028656</v>
+        <v>-95711.61742718995</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10246262.14428199</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24521894.76850772</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3084873.43110426</v>
+        <v>4206513.90715286</v>
       </c>
     </row>
     <row r="11">
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,16 +9327,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9491,7 +9491,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
         <v>57.81213424001893</v>
@@ -9646,19 +9646,19 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9722,22 +9722,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,19 +9801,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9877,13 +9877,13 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
         <v>110.5750244233121</v>
@@ -9895,7 +9895,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -9962,19 +9962,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10199,10 +10199,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
         <v>57.81213424001893</v>
@@ -10211,7 +10211,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10284,10 +10284,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10354,19 +10354,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -10436,16 +10436,16 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -10521,7 +10521,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10591,19 +10591,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10670,16 +10670,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
         <v>92.09541281912071</v>
@@ -10995,7 +10995,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
         <v>101.5955875616828</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,25 +11378,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22807,31 +22807,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -23755,31 +23755,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23919,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -24083,7 +24083,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24238,19 +24238,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24314,22 +24314,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24393,19 +24393,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24469,13 +24469,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24542,10 +24542,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24554,19 +24554,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24703,28 +24703,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24791,10 +24791,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24876,10 +24876,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>61.14583096471014</v>
@@ -24946,19 +24946,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25028,16 +25028,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25183,19 +25183,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25262,16 +25262,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25414,28 +25414,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25490,34 +25490,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25578,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25651,25 +25651,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25727,34 +25727,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25891,25 +25891,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25970,25 +25970,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26049,22 +26049,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>122182.3003161621</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>152902.9074133306</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>356764.3343264521</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>230218.7710227642</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>276326.3424160747</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>249277.608060601</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>244128.3383002068</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>259396.1633974602</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165499.8898870657</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>194289.7093874986</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178349.2155151618</v>
+        <v>359633.0320075115</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="C2" t="n">
-        <v>27927.38292940848</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989086</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="G2" t="n">
-        <v>44203.83861264955</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="H2" t="n">
-        <v>90800.73619279158</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="I2" t="n">
-        <v>61876.03600909153</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="J2" t="n">
-        <v>72414.9094704196</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="K2" t="n">
-        <v>66232.34161773995</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="L2" t="n">
-        <v>65055.36567250697</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="M2" t="n">
-        <v>68545.1542661649</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="N2" t="n">
-        <v>47083.14889236043</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
-        <v>53663.67906388792</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="P2" t="n">
-        <v>50020.13760735384</v>
+        <v>91456.43851989089</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>86005.92442515712</v>
       </c>
       <c r="C4" t="n">
-        <v>27927.38292940848</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="D4" t="n">
         <v>86005.92442515712</v>
@@ -26432,34 +26432,34 @@
         <v>50967.5520028798</v>
       </c>
       <c r="G4" t="n">
-        <v>3714.952095638481</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="H4" t="n">
-        <v>50311.84967578051</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="I4" t="n">
-        <v>21387.14949208047</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="J4" t="n">
-        <v>31926.02295340854</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="K4" t="n">
-        <v>25743.45510072889</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="L4" t="n">
-        <v>24566.47915549589</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="M4" t="n">
-        <v>28056.26774915383</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="N4" t="n">
-        <v>6594.262375349359</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="O4" t="n">
-        <v>13174.79254687685</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="P4" t="n">
-        <v>9531.251090342776</v>
+        <v>50967.5520028798</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799731</v>
+        <v>-111032.7424271112</v>
       </c>
       <c r="F6" t="n">
-        <v>36877.27441200273</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="G6" t="n">
-        <v>36877.27441200275</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="H6" t="n">
-        <v>36877.27441200274</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="I6" t="n">
-        <v>36877.27441200274</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="J6" t="n">
-        <v>36877.27441200273</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="K6" t="n">
-        <v>36877.27441200273</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="L6" t="n">
-        <v>36877.27441200276</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="M6" t="n">
-        <v>36877.27441200275</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="N6" t="n">
-        <v>36877.27441200274</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="O6" t="n">
-        <v>36877.27441200275</v>
+        <v>22067.25757288886</v>
       </c>
       <c r="P6" t="n">
-        <v>36877.27441200274</v>
+        <v>22067.25757288886</v>
       </c>
     </row>
   </sheetData>
